--- a/Country-Year Data/Historical FCV.xlsx
+++ b/Country-Year Data/Historical FCV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB Tax Consultancy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB Tax Consultancy\Country-Year Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802BCBE-B6AC-47A1-8AC4-8BD8BA25782A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7995EE53-4351-4E1E-8D7B-6C1B7BFF2F28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1968" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{D8B603D3-EFA1-4C55-A72B-CAEF6102C1D9}"/>
+    <workbookView xWindow="3600" yWindow="3600" windowWidth="7500" windowHeight="6000" xr2:uid="{D8B603D3-EFA1-4C55-A72B-CAEF6102C1D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="73">
   <si>
     <t>year</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Sudan</t>
   </si>
   <si>
-    <t>Timor Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -204,6 +201,54 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Micronesia FS</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Colombia</t>
   </si>
 </sst>
 </file>
@@ -555,17 +600,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D69EE0-8667-4998-BEFB-345BA53E66CE}">
-  <dimension ref="A1:C489"/>
+  <dimension ref="A1:C530"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -708,7 +753,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2006</v>
@@ -752,7 +797,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>2006</v>
@@ -829,7 +874,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>2006</v>
@@ -840,7 +885,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>2006</v>
@@ -851,7 +896,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>2006</v>
@@ -862,7 +907,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>2006</v>
@@ -873,7 +918,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>2006</v>
@@ -884,7 +929,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>2006</v>
@@ -895,7 +940,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>2006</v>
@@ -906,7 +951,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>2006</v>
@@ -917,7 +962,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>2006</v>
@@ -928,7 +973,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>2006</v>
@@ -939,7 +984,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>2006</v>
@@ -950,7 +995,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>2006</v>
@@ -961,10 +1006,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -972,10 +1017,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B38">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -983,10 +1028,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B39">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -994,10 +1039,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B40">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1005,10 +1050,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B41">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1016,10 +1061,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1027,10 +1072,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1038,10 +1083,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1049,10 +1094,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B45">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1060,10 +1105,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B46">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1071,10 +1116,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B47">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1082,7 +1127,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <v>2007</v>
@@ -1093,7 +1138,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B49">
         <v>2007</v>
@@ -1104,7 +1149,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <v>2007</v>
@@ -1115,7 +1160,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B51">
         <v>2007</v>
@@ -1126,7 +1171,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <v>2007</v>
@@ -1137,7 +1182,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>2007</v>
@@ -1148,7 +1193,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>2007</v>
@@ -1159,7 +1204,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B55">
         <v>2007</v>
@@ -1170,7 +1215,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>2007</v>
@@ -1181,7 +1226,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>2007</v>
@@ -1192,7 +1237,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>2007</v>
@@ -1203,7 +1248,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B59">
         <v>2007</v>
@@ -1214,7 +1259,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B60">
         <v>2007</v>
@@ -1225,7 +1270,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>2007</v>
@@ -1236,7 +1281,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B62">
         <v>2007</v>
@@ -1247,7 +1292,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B63">
         <v>2007</v>
@@ -1258,7 +1303,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B64">
         <v>2007</v>
@@ -1269,7 +1314,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B65">
         <v>2007</v>
@@ -1280,7 +1325,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B66">
         <v>2007</v>
@@ -1291,7 +1336,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B67">
         <v>2007</v>
@@ -1302,7 +1347,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B68">
         <v>2007</v>
@@ -1313,7 +1358,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B69">
         <v>2007</v>
@@ -1324,7 +1369,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B70">
         <v>2007</v>
@@ -1335,7 +1380,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <v>2007</v>
@@ -1346,10 +1391,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B72">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1357,10 +1402,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B73">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1368,10 +1413,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1379,10 +1424,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1390,10 +1435,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B76">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1401,10 +1446,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B77">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1412,10 +1457,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B78">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1423,10 +1468,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B79">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1434,10 +1479,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1445,10 +1490,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B81">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1456,10 +1501,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B82">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1467,10 +1512,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B83">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1478,10 +1523,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B84">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1489,10 +1534,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B85">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1500,10 +1545,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B86">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1511,10 +1556,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B87">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1522,10 +1567,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B88">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1533,10 +1578,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B89">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1544,10 +1589,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B90">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1555,10 +1600,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B91">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1566,10 +1611,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B92">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1577,10 +1622,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B93">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1588,10 +1633,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B94">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1599,7 +1644,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B95">
         <v>2008</v>
@@ -1610,7 +1655,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B96">
         <v>2008</v>
@@ -1621,7 +1666,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B97">
         <v>2008</v>
@@ -1632,7 +1677,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B98">
         <v>2008</v>
@@ -1643,7 +1688,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B99">
         <v>2008</v>
@@ -1654,7 +1699,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B100">
         <v>2008</v>
@@ -1665,7 +1710,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B101">
         <v>2008</v>
@@ -1676,7 +1721,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B102">
         <v>2008</v>
@@ -1698,7 +1743,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B104">
         <v>2008</v>
@@ -1709,7 +1754,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B105">
         <v>2008</v>
@@ -1720,10 +1765,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B106">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1731,10 +1776,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B107">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1742,10 +1787,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B108">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1756,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="B109">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -1764,10 +1809,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B110">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -1775,10 +1820,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B111">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -1786,10 +1831,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B112">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -1797,10 +1842,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B113">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -1808,10 +1853,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B114">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -1819,10 +1864,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B115">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -1830,10 +1875,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B116">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -1841,10 +1886,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B117">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -1852,10 +1897,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B118">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -1863,10 +1908,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B119">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -1874,10 +1919,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B120">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -1885,10 +1930,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B121">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -1896,10 +1941,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B122">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -1907,10 +1952,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B123">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -1918,10 +1963,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B124">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -1929,10 +1974,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B125">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -1940,10 +1985,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -1951,10 +1996,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B127">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -1965,7 +2010,7 @@
         <v>25</v>
       </c>
       <c r="B128">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -1973,10 +2018,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B129">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -1984,10 +2029,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B130">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -1995,10 +2040,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B131">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -2006,10 +2051,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B132">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -2017,10 +2062,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B133">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -2028,10 +2073,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B134">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -2039,10 +2084,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B135">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -2050,10 +2095,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B136">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -2061,10 +2106,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B137">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -2072,10 +2117,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B138">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -2083,10 +2128,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B139">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -2094,10 +2139,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B140">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -2105,10 +2150,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B141">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -2116,10 +2161,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B142">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -2127,10 +2172,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B143">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -2138,10 +2183,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B144">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -2149,10 +2194,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B145">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -2160,10 +2205,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B146">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -2171,10 +2216,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B147">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2182,10 +2227,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B148">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2193,10 +2238,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B149">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2204,10 +2249,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B150">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2215,10 +2260,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B151">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2226,10 +2271,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B152">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2237,10 +2282,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B153">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2248,10 +2293,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B154">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -2259,10 +2304,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B155">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -2270,10 +2315,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B156">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2281,10 +2326,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -2292,10 +2337,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B158">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -2303,10 +2348,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B159">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -2314,10 +2359,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B160">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2325,10 +2370,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B161">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2336,10 +2381,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B162">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2347,10 +2392,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B163">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2358,10 +2403,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B164">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2369,10 +2414,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B165">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2380,10 +2425,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B166">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2391,10 +2436,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B167">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -2402,10 +2447,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B168">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -2413,10 +2458,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B169">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -2424,10 +2469,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B170">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -2435,10 +2480,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B171">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -2446,10 +2491,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B172">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2457,10 +2502,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B173">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -2468,10 +2513,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B174">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -2479,10 +2524,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B175">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -2490,10 +2535,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B176">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -2501,10 +2546,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B177">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2512,10 +2557,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B178">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2523,10 +2568,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B179">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -2534,10 +2579,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B180">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -2545,10 +2590,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B181">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -2556,10 +2601,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B182">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -2567,10 +2612,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B183">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -2578,10 +2623,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B184">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -2589,10 +2634,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B185">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -2600,10 +2645,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B186">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -2611,10 +2656,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B187">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -2622,10 +2667,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B188">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -2633,10 +2678,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B189">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -2644,10 +2689,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B190">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -2655,10 +2700,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B191">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -2666,10 +2711,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B192">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -2677,10 +2722,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B193">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -2688,10 +2733,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B194">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -2699,10 +2744,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B195">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -2710,10 +2755,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B196">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -2721,10 +2766,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B197">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -2732,10 +2777,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B198">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -2743,10 +2788,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B199">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -2754,10 +2799,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B200">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -2765,10 +2810,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B201">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -2776,10 +2821,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B202">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -2787,10 +2832,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B203">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -2798,10 +2843,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B204">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -2809,10 +2854,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B205">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -2820,10 +2865,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B206">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -2831,10 +2876,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B207">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -2842,10 +2887,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B208">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -2853,10 +2898,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B209">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -2864,10 +2909,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B210">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -2875,10 +2920,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B211">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -2886,10 +2931,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B212">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -2897,10 +2942,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B213">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -2908,10 +2953,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B214">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -2919,10 +2964,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B215">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -2930,10 +2975,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B216">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -2941,10 +2986,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B217">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -2952,10 +2997,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B218">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -2963,10 +3008,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -2974,10 +3019,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B220">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -2985,10 +3030,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B221">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -2996,10 +3041,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B222">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -3007,10 +3052,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B223">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -3018,10 +3063,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B224">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -3029,10 +3074,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B225">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -3040,10 +3085,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B226">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -3051,10 +3096,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B227">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -3062,10 +3107,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B228">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -3073,10 +3118,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B229">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -3084,10 +3129,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B230">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -3095,10 +3140,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B231">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -3106,10 +3151,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B232">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -3117,10 +3162,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B233">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -3128,10 +3173,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B234">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -3139,10 +3184,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B235">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -3150,10 +3195,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B236">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -3161,10 +3206,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B237">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -3172,10 +3217,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B238">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -3183,10 +3228,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B239">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -3194,10 +3239,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B240">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -3205,10 +3250,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B241">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -3216,10 +3261,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B242">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -3227,10 +3272,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B243">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -3238,10 +3283,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B244">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -3249,10 +3294,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B245">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -3260,10 +3305,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B246">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -3271,10 +3316,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B247">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -3282,10 +3327,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B248">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -3293,10 +3338,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B249">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -3304,10 +3349,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B250">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -3315,10 +3360,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -3326,10 +3371,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B252">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -3337,10 +3382,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B253">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -3348,10 +3393,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B254">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -3359,10 +3404,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B255">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -3370,10 +3415,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B256">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -3381,10 +3426,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B257">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -3392,10 +3437,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B258">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -3403,10 +3448,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B259">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -3414,10 +3459,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B260">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -3425,10 +3470,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B261">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -3436,10 +3481,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B262">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -3447,10 +3492,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B263">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -3458,10 +3503,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B264">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -3469,10 +3514,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B265">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -3480,10 +3525,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B266">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -3491,10 +3536,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B267">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -3502,10 +3547,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B268">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -3513,10 +3558,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B269">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -3524,10 +3569,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B270">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -3535,10 +3580,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B271">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -3546,10 +3591,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B272">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -3557,10 +3602,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B273">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -3568,10 +3613,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B274">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -3579,10 +3624,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B275">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -3590,10 +3635,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B276">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -3601,10 +3646,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B277">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -3612,10 +3657,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B278">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -3623,10 +3668,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B279">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -3634,10 +3679,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B280">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -3645,10 +3690,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B281">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -3656,10 +3701,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -3667,10 +3712,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B283">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -3678,10 +3723,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B284">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -3689,10 +3734,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B285">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -3700,10 +3745,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B286">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -3711,10 +3756,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B287">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -3722,10 +3767,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B288">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -3733,10 +3778,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B289">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -3744,10 +3789,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B290">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -3755,10 +3800,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B291">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -3766,10 +3811,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B292">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -3777,10 +3822,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B293">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -3788,10 +3833,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B294">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -3799,10 +3844,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B295">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -3810,10 +3855,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B296">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -3821,10 +3866,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B297">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -3832,10 +3877,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B298">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -3843,10 +3888,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B299">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -3854,10 +3899,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B300">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -3865,10 +3910,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B301">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -3876,10 +3921,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B302">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -3887,10 +3932,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B303">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -3898,10 +3943,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B304">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -3909,10 +3954,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B305">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -3920,10 +3965,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B306">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -3931,10 +3976,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B307">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -3942,10 +3987,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B308">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -3953,10 +3998,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B309">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -3964,10 +4009,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B310">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -3975,10 +4020,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -3986,10 +4031,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B312">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -3997,10 +4042,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B313">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -4008,10 +4053,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B314">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -4019,10 +4064,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B315">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -4030,10 +4075,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B316">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -4041,10 +4086,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B317">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -4052,10 +4097,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B318">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -4063,10 +4108,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B319">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -4074,10 +4119,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B320">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -4085,10 +4130,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B321">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -4096,10 +4141,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B322">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -4107,10 +4152,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B323">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -4118,10 +4163,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B324">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -4129,10 +4174,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B325">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -4140,10 +4185,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B326">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -4151,10 +4196,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B327">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -4162,10 +4207,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B328">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -4176,7 +4221,7 @@
         <v>53</v>
       </c>
       <c r="B329">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -4184,10 +4229,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B330">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -4195,10 +4240,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B331">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -4206,10 +4251,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B332">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -4217,10 +4262,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B333">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -4228,10 +4273,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B334">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -4239,10 +4284,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B335">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -4250,10 +4295,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B336">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -4261,10 +4306,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B337">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -4272,10 +4317,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B338">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -4283,10 +4328,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B339">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -4297,7 +4342,7 @@
         <v>39</v>
       </c>
       <c r="B340">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -4305,10 +4350,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B341">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -4316,10 +4361,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B342">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -4327,10 +4372,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B343">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -4338,10 +4383,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B344">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -4349,10 +4394,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B345">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -4360,10 +4405,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B346">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -4371,10 +4416,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B347">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -4382,10 +4427,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B348">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -4393,10 +4438,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B349">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -4404,10 +4449,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B350">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -4415,10 +4460,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B351">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -4426,10 +4471,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B352">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -4437,10 +4482,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B353">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -4448,10 +4493,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B354">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -4459,10 +4504,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B355">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -4470,10 +4515,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B356">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -4481,10 +4526,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B357">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -4492,10 +4537,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B358">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -4503,10 +4548,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B359">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -4514,10 +4559,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B360">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -4525,10 +4570,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B361">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -4536,10 +4581,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B362">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -4547,10 +4592,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B363">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -4558,10 +4603,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B364">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -4569,10 +4614,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B365">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -4580,10 +4625,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B366">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -4591,10 +4636,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B367">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -4602,10 +4647,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B368">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -4613,10 +4658,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B369">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -4624,10 +4669,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B370">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -4635,10 +4680,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B371">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -4646,10 +4691,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B372">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -4657,10 +4702,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B373">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -4668,10 +4713,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B374">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -4679,10 +4724,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B375">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -4690,10 +4735,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B376">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -4701,10 +4746,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B377">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -4712,10 +4757,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B378">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -4723,10 +4768,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B379">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -4734,10 +4779,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B380">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -4745,10 +4790,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B381">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -4756,10 +4801,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B382">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -4767,10 +4812,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B383">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -4778,10 +4823,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B384">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -4789,10 +4834,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B385">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -4800,10 +4845,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B386">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -4811,10 +4856,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B387">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -4822,10 +4867,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B388">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -4833,10 +4878,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B389">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -4844,10 +4889,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B390">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -4855,10 +4900,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B391">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -4866,10 +4911,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B392">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -4877,10 +4922,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B393">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -4888,10 +4933,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B394">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -4899,10 +4944,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B395">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -4910,10 +4955,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B396">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -4921,10 +4966,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B397">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -4932,10 +4977,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B398">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -4943,10 +4988,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B399">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -4954,10 +4999,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B400">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -4965,10 +5010,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B401">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -4976,10 +5021,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B402">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -4987,10 +5032,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B403">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -4998,10 +5043,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B404">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -5009,10 +5054,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B405">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -5020,10 +5065,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B406">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -5031,10 +5076,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B407">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -5042,10 +5087,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B408">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -5053,10 +5098,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B409">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -5064,10 +5109,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B410">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -5075,10 +5120,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B411">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -5086,10 +5131,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B412">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -5097,10 +5142,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B413">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -5108,10 +5153,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B414">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -5119,10 +5164,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B415">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -5130,10 +5175,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B416">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -5141,10 +5186,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B417">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -5152,10 +5197,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B418">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -5163,10 +5208,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B419">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -5174,10 +5219,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B420">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -5185,10 +5230,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B421">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -5196,10 +5241,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B422">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -5207,10 +5252,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B423">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -5218,10 +5263,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B424">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -5229,10 +5274,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B425">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -5240,10 +5285,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B426">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -5251,10 +5296,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B427">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -5262,10 +5307,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B428">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -5273,10 +5318,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B429">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -5284,10 +5329,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B430">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -5295,10 +5340,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B431">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -5306,10 +5351,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B432">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -5317,10 +5362,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B433">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -5331,7 +5376,7 @@
         <v>53</v>
       </c>
       <c r="B434">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -5339,10 +5384,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B435">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C435">
         <v>1</v>
@@ -5350,10 +5395,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B436">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -5361,10 +5406,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B437">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -5372,10 +5417,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B438">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -5383,10 +5428,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B439">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -5394,10 +5439,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B440">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -5405,10 +5450,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B441">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -5416,10 +5461,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B442">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -5427,10 +5472,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B443">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -5438,10 +5483,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B444">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -5449,10 +5494,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B445">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -5460,10 +5505,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B446">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -5471,10 +5516,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B447">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -5482,10 +5527,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B448">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -5493,10 +5538,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B449">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -5504,10 +5549,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B450">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -5515,10 +5560,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B451">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -5526,10 +5571,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B452">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C452">
         <v>1</v>
@@ -5537,10 +5582,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B453">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -5548,10 +5593,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B454">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -5559,10 +5604,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B455">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -5570,10 +5615,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B456">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -5581,10 +5626,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B457">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -5592,10 +5637,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B458">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -5603,10 +5648,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B459">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C459">
         <v>1</v>
@@ -5614,10 +5659,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B460">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C460">
         <v>1</v>
@@ -5625,10 +5670,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B461">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -5636,10 +5681,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B462">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -5647,10 +5692,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B463">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -5658,10 +5703,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B464">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -5669,10 +5714,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B465">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -5680,10 +5725,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B466">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -5691,10 +5736,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B467">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -5702,10 +5747,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B468">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -5713,10 +5758,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B469">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -5727,7 +5772,7 @@
         <v>53</v>
       </c>
       <c r="B470">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -5735,10 +5780,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B471">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -5746,10 +5791,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B472">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -5757,10 +5802,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B473">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -5768,10 +5813,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B474">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -5779,10 +5824,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B475">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -5790,10 +5835,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B476">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -5801,10 +5846,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B477">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -5812,10 +5857,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B478">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -5823,10 +5868,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B479">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -5834,10 +5879,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B480">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -5845,10 +5890,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B481">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -5856,10 +5901,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B482">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -5867,10 +5912,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B483">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -5878,10 +5923,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B484">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -5889,10 +5934,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B485">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -5900,10 +5945,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B486">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -5911,10 +5956,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B487">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -5922,10 +5967,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B488">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -5933,12 +5978,463 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
+        <v>38</v>
+      </c>
+      <c r="B489">
+        <v>2018</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A490" t="s">
+        <v>26</v>
+      </c>
+      <c r="B490">
+        <v>2018</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A491" t="s">
+        <v>8</v>
+      </c>
+      <c r="B491">
+        <v>2018</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A492" t="s">
+        <v>43</v>
+      </c>
+      <c r="B492">
+        <v>2018</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A493" t="s">
+        <v>54</v>
+      </c>
+      <c r="B493">
+        <v>2018</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A494" t="s">
+        <v>48</v>
+      </c>
+      <c r="B494">
+        <v>2018</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A495" t="s">
+        <v>2</v>
+      </c>
+      <c r="B495">
+        <v>2019</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A496" t="s">
+        <v>10</v>
+      </c>
+      <c r="B496">
+        <v>2019</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A497" t="s">
+        <v>3</v>
+      </c>
+      <c r="B497">
+        <v>2019</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A498" t="s">
+        <v>27</v>
+      </c>
+      <c r="B498">
+        <v>2019</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B499">
+        <v>2019</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A500" t="s">
+        <v>12</v>
+      </c>
+      <c r="B500">
+        <v>2019</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A501" t="s">
+        <v>13</v>
+      </c>
+      <c r="B501">
+        <v>2019</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A502" t="s">
+        <v>34</v>
+      </c>
+      <c r="B502">
+        <v>2019</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A503" t="s">
+        <v>14</v>
+      </c>
+      <c r="B503">
+        <v>2019</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A504" t="s">
+        <v>15</v>
+      </c>
+      <c r="B504">
+        <v>2019</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A505" t="s">
+        <v>28</v>
+      </c>
+      <c r="B505">
+        <v>2019</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A506" t="s">
+        <v>53</v>
+      </c>
+      <c r="B506">
+        <v>2019</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A507" t="s">
+        <v>17</v>
+      </c>
+      <c r="B507">
+        <v>2019</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A508" t="s">
+        <v>36</v>
+      </c>
+      <c r="B508">
+        <v>2019</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A509" t="s">
+        <v>18</v>
+      </c>
+      <c r="B509">
+        <v>2019</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A510" t="s">
+        <v>5</v>
+      </c>
+      <c r="B510">
+        <v>2019</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A511" t="s">
+        <v>52</v>
+      </c>
+      <c r="B511">
+        <v>2019</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A512" t="s">
+        <v>44</v>
+      </c>
+      <c r="B512">
+        <v>2019</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A513" t="s">
+        <v>45</v>
+      </c>
+      <c r="B513">
+        <v>2019</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A514" t="s">
+        <v>55</v>
+      </c>
+      <c r="B514">
+        <v>2019</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A515" t="s">
+        <v>6</v>
+      </c>
+      <c r="B515">
+        <v>2019</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A516" t="s">
+        <v>21</v>
+      </c>
+      <c r="B516">
+        <v>2019</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A517" t="s">
+        <v>7</v>
+      </c>
+      <c r="B517">
+        <v>2019</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A518" t="s">
+        <v>46</v>
+      </c>
+      <c r="B518">
+        <v>2019</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A519" t="s">
+        <v>22</v>
+      </c>
+      <c r="B519">
+        <v>2019</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A520" t="s">
         <v>49</v>
       </c>
-      <c r="B489">
+      <c r="B520">
         <v>2019</v>
       </c>
-      <c r="C489">
+      <c r="C520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A521" t="s">
+        <v>23</v>
+      </c>
+      <c r="B521">
+        <v>2019</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A522" t="s">
+        <v>47</v>
+      </c>
+      <c r="B522">
+        <v>2019</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A523" t="s">
+        <v>38</v>
+      </c>
+      <c r="B523">
+        <v>2019</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A524" t="s">
+        <v>26</v>
+      </c>
+      <c r="B524">
+        <v>2019</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A525" t="s">
+        <v>29</v>
+      </c>
+      <c r="B525">
+        <v>2019</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A526" t="s">
+        <v>65</v>
+      </c>
+      <c r="B526">
+        <v>2019</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A527" t="s">
+        <v>8</v>
+      </c>
+      <c r="B527">
+        <v>2019</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A528" t="s">
+        <v>43</v>
+      </c>
+      <c r="B528">
+        <v>2019</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A529" t="s">
+        <v>54</v>
+      </c>
+      <c r="B529">
+        <v>2019</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A530" t="s">
+        <v>48</v>
+      </c>
+      <c r="B530">
+        <v>2019</v>
+      </c>
+      <c r="C530">
         <v>1</v>
       </c>
     </row>
